--- a/course-2-2/it/lab1/main.xlsx
+++ b/course-2-2/it/lab1/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USer\Desktop\university\course-2-2\it\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775755AE-4697-4A7E-98CE-36E00AA5F17E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714CD045-35D1-4D55-A691-942715AC9E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,13 +139,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,14 +462,17 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -445,208 +481,267 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
         <v>7000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
         <v>5000</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>2000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>3000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>4000</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>5000</v>
       </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>2000.0000005999998</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>3000</v>
       </c>
-      <c r="D11">
-        <v>999.99999940000009</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="5">
+        <v>999.99999939999998</v>
+      </c>
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="F11" s="6"/>
+      <c r="G11" s="5">
         <f>SUM(B11:E11)</f>
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>-5.9999999280080374E-7</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>3000.0000006</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="6"/>
+      <c r="G12" s="5">
         <f t="shared" ref="G12:G13" si="0">SUM(B12:E12)</f>
         <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>3.4106051316484799E-13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>5000</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="6"/>
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>SUM(B11:B13)</f>
         <v>2000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f t="shared" ref="C15:D15" si="1">SUM(C11:C13)</f>
         <v>3000</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f>SUM(E11:E13)</f>
         <v>5000</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>SUMPRODUCT(B3:E5,B11:E13)</f>
         <v>39999.999996400002</v>
       </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
